--- a/src/data/testcase.xlsx
+++ b/src/data/testcase.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="48">
   <si>
     <t>case_id</t>
   </si>
